--- a/tests/Gauges/Subtotal_WithHeaders.xlsx
+++ b/tests/Gauges/Subtotal_WithHeaders.xlsx
@@ -785,27 +785,27 @@
     <x:row r="3" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <x:c r="A3" s="21" t="s"/>
       <x:c r="B3" s="21" t="s"/>
-      <x:c r="C3" s="9" t="s"/>
+      <x:c r="C3" s="9"/>
       <x:c r="D3" s="10" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="E3" s="10" t="s"/>
       <x:c r="F3" s="11" t="s"/>
-      <x:c r="G3" s="10" t="s"/>
-      <x:c r="H3" s="12" t="s"/>
+      <x:c r="G3" s="10" t="n"/>
+      <x:c r="H3" s="12" t="n"/>
       <x:c r="I3" s="13" t="s"/>
     </x:row>
     <x:row r="4" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A4" s="21" t="s"/>
       <x:c r="B4" s="21" t="s"/>
-      <x:c r="C4" s="9" t="s"/>
+      <x:c r="C4" s="9"/>
       <x:c r="D4" s="10" t="s"/>
       <x:c r="E4" s="10" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F4" s="11" t="s"/>
-      <x:c r="G4" s="10" t="s"/>
-      <x:c r="H4" s="12" t="s"/>
+      <x:c r="G4" s="10" t="n"/>
+      <x:c r="H4" s="12" t="n"/>
       <x:c r="I4" s="13" t="s"/>
     </x:row>
     <x:row r="5" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
@@ -911,14 +911,14 @@
     <x:row r="9" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A9" s="21" t="s"/>
       <x:c r="B9" s="21" t="s"/>
-      <x:c r="C9" s="9" t="s"/>
+      <x:c r="C9" s="9"/>
       <x:c r="D9" s="10" t="s"/>
       <x:c r="E9" s="10" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F9" s="11" t="s"/>
-      <x:c r="G9" s="10" t="s"/>
-      <x:c r="H9" s="12" t="s"/>
+      <x:c r="G9" s="10" t="n"/>
+      <x:c r="H9" s="12" t="n"/>
       <x:c r="I9" s="13">
         <x:f>Subtotal(9,I5:I8)</x:f>
       </x:c>
@@ -926,14 +926,14 @@
     <x:row r="10" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A10" s="21" t="s"/>
       <x:c r="B10" s="21" t="s"/>
-      <x:c r="C10" s="9" t="s"/>
+      <x:c r="C10" s="9"/>
       <x:c r="D10" s="10" t="s"/>
       <x:c r="E10" s="10" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F10" s="11" t="s"/>
-      <x:c r="G10" s="10" t="s"/>
-      <x:c r="H10" s="12" t="s"/>
+      <x:c r="G10" s="10" t="n"/>
+      <x:c r="H10" s="12" t="n"/>
       <x:c r="I10" s="13" t="s"/>
     </x:row>
     <x:row r="11" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
@@ -1064,14 +1064,14 @@
     <x:row r="16" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A16" s="21" t="s"/>
       <x:c r="B16" s="21" t="s"/>
-      <x:c r="C16" s="9" t="s"/>
+      <x:c r="C16" s="9"/>
       <x:c r="D16" s="10" t="s"/>
       <x:c r="E16" s="10" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F16" s="11" t="s"/>
-      <x:c r="G16" s="10" t="s"/>
-      <x:c r="H16" s="12" t="s"/>
+      <x:c r="G16" s="10" t="n"/>
+      <x:c r="H16" s="12" t="n"/>
       <x:c r="I16" s="13">
         <x:f>Subtotal(9,I11:I15)</x:f>
       </x:c>
@@ -1079,14 +1079,14 @@
     <x:row r="17" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A17" s="21" t="s"/>
       <x:c r="B17" s="21" t="s"/>
-      <x:c r="C17" s="9" t="s"/>
+      <x:c r="C17" s="9"/>
       <x:c r="D17" s="10" t="s"/>
       <x:c r="E17" s="10" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="F17" s="11" t="s"/>
-      <x:c r="G17" s="10" t="s"/>
-      <x:c r="H17" s="12" t="s"/>
+      <x:c r="G17" s="10" t="n"/>
+      <x:c r="H17" s="12" t="n"/>
       <x:c r="I17" s="13" t="s"/>
     </x:row>
     <x:row r="18" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
@@ -1217,14 +1217,14 @@
     <x:row r="23" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A23" s="21" t="s"/>
       <x:c r="B23" s="21" t="s"/>
-      <x:c r="C23" s="9" t="s"/>
+      <x:c r="C23" s="9"/>
       <x:c r="D23" s="10" t="s"/>
       <x:c r="E23" s="10" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="F23" s="11" t="s"/>
-      <x:c r="G23" s="10" t="s"/>
-      <x:c r="H23" s="12" t="s"/>
+      <x:c r="G23" s="10" t="n"/>
+      <x:c r="H23" s="12" t="n"/>
       <x:c r="I23" s="13">
         <x:f>Subtotal(9,I18:I22)</x:f>
       </x:c>
@@ -1232,14 +1232,14 @@
     <x:row r="24" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A24" s="21" t="s"/>
       <x:c r="B24" s="21" t="s"/>
-      <x:c r="C24" s="9" t="s"/>
+      <x:c r="C24" s="9"/>
       <x:c r="D24" s="10" t="s"/>
       <x:c r="E24" s="10" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="F24" s="11" t="s"/>
-      <x:c r="G24" s="10" t="s"/>
-      <x:c r="H24" s="12" t="s"/>
+      <x:c r="G24" s="10" t="n"/>
+      <x:c r="H24" s="12" t="n"/>
       <x:c r="I24" s="13" t="s"/>
     </x:row>
     <x:row r="25" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
@@ -1345,14 +1345,14 @@
     <x:row r="29" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A29" s="21" t="s"/>
       <x:c r="B29" s="21" t="s"/>
-      <x:c r="C29" s="9" t="s"/>
+      <x:c r="C29" s="9"/>
       <x:c r="D29" s="10" t="s"/>
       <x:c r="E29" s="10" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="F29" s="11" t="s"/>
-      <x:c r="G29" s="10" t="s"/>
-      <x:c r="H29" s="12" t="s"/>
+      <x:c r="G29" s="10" t="n"/>
+      <x:c r="H29" s="12" t="n"/>
       <x:c r="I29" s="13">
         <x:f>Subtotal(9,I25:I28)</x:f>
       </x:c>
@@ -1360,14 +1360,14 @@
     <x:row r="30" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A30" s="21" t="s"/>
       <x:c r="B30" s="21" t="s"/>
-      <x:c r="C30" s="9" t="s"/>
+      <x:c r="C30" s="9"/>
       <x:c r="D30" s="10" t="s"/>
       <x:c r="E30" s="10" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="F30" s="11" t="s"/>
-      <x:c r="G30" s="10" t="s"/>
-      <x:c r="H30" s="12" t="s"/>
+      <x:c r="G30" s="10" t="n"/>
+      <x:c r="H30" s="12" t="n"/>
       <x:c r="I30" s="13" t="s"/>
     </x:row>
     <x:row r="31" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
@@ -1448,14 +1448,14 @@
     <x:row r="34" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A34" s="21" t="s"/>
       <x:c r="B34" s="21" t="s"/>
-      <x:c r="C34" s="9" t="s"/>
+      <x:c r="C34" s="9"/>
       <x:c r="D34" s="10" t="s"/>
       <x:c r="E34" s="10" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F34" s="11" t="s"/>
-      <x:c r="G34" s="10" t="s"/>
-      <x:c r="H34" s="12" t="s"/>
+      <x:c r="G34" s="10" t="n"/>
+      <x:c r="H34" s="12" t="n"/>
       <x:c r="I34" s="13">
         <x:f>Subtotal(9,I31:I33)</x:f>
       </x:c>
@@ -1463,14 +1463,14 @@
     <x:row r="35" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A35" s="21" t="s"/>
       <x:c r="B35" s="21" t="s"/>
-      <x:c r="C35" s="9" t="s"/>
+      <x:c r="C35" s="9"/>
       <x:c r="D35" s="10" t="s"/>
       <x:c r="E35" s="10" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="F35" s="11" t="s"/>
-      <x:c r="G35" s="10" t="s"/>
-      <x:c r="H35" s="12" t="s"/>
+      <x:c r="G35" s="10" t="n"/>
+      <x:c r="H35" s="12" t="n"/>
       <x:c r="I35" s="13" t="s"/>
     </x:row>
     <x:row r="36" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
@@ -1551,14 +1551,14 @@
     <x:row r="39" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A39" s="21" t="s"/>
       <x:c r="B39" s="21" t="s"/>
-      <x:c r="C39" s="9" t="s"/>
+      <x:c r="C39" s="9"/>
       <x:c r="D39" s="10" t="s"/>
       <x:c r="E39" s="10" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="F39" s="11" t="s"/>
-      <x:c r="G39" s="10" t="s"/>
-      <x:c r="H39" s="12" t="s"/>
+      <x:c r="G39" s="10" t="n"/>
+      <x:c r="H39" s="12" t="n"/>
       <x:c r="I39" s="13">
         <x:f>Subtotal(9,I36:I38)</x:f>
       </x:c>
@@ -1566,14 +1566,14 @@
     <x:row r="40" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <x:c r="A40" s="21" t="s"/>
       <x:c r="B40" s="21" t="s"/>
-      <x:c r="C40" s="9" t="s"/>
+      <x:c r="C40" s="9"/>
       <x:c r="D40" s="10" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="E40" s="10" t="s"/>
       <x:c r="F40" s="11" t="s"/>
-      <x:c r="G40" s="10" t="s"/>
-      <x:c r="H40" s="12" t="s"/>
+      <x:c r="G40" s="10" t="n"/>
+      <x:c r="H40" s="12" t="n"/>
       <x:c r="I40" s="13">
         <x:f>Subtotal(9,I5:I39)</x:f>
       </x:c>
@@ -1581,27 +1581,27 @@
     <x:row r="41" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <x:c r="A41" s="21" t="s"/>
       <x:c r="B41" s="21" t="s"/>
-      <x:c r="C41" s="9" t="s"/>
+      <x:c r="C41" s="9"/>
       <x:c r="D41" s="10" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="E41" s="10" t="s"/>
       <x:c r="F41" s="11" t="s"/>
-      <x:c r="G41" s="10" t="s"/>
-      <x:c r="H41" s="12" t="s"/>
+      <x:c r="G41" s="10" t="n"/>
+      <x:c r="H41" s="12" t="n"/>
       <x:c r="I41" s="13" t="s"/>
     </x:row>
     <x:row r="42" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A42" s="21" t="s"/>
       <x:c r="B42" s="21" t="s"/>
-      <x:c r="C42" s="9" t="s"/>
+      <x:c r="C42" s="9"/>
       <x:c r="D42" s="10" t="s"/>
       <x:c r="E42" s="10" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F42" s="11" t="s"/>
-      <x:c r="G42" s="10" t="s"/>
-      <x:c r="H42" s="12" t="s"/>
+      <x:c r="G42" s="10" t="n"/>
+      <x:c r="H42" s="12" t="n"/>
       <x:c r="I42" s="13" t="s"/>
     </x:row>
     <x:row r="43" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
@@ -1632,14 +1632,14 @@
     <x:row r="44" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A44" s="21" t="s"/>
       <x:c r="B44" s="21" t="s"/>
-      <x:c r="C44" s="9" t="s"/>
+      <x:c r="C44" s="9"/>
       <x:c r="D44" s="10" t="s"/>
       <x:c r="E44" s="10" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="F44" s="11" t="s"/>
-      <x:c r="G44" s="10" t="s"/>
-      <x:c r="H44" s="12" t="s"/>
+      <x:c r="G44" s="10" t="n"/>
+      <x:c r="H44" s="12" t="n"/>
       <x:c r="I44" s="13">
         <x:f>Subtotal(9,I43:I43)</x:f>
       </x:c>
@@ -1647,14 +1647,14 @@
     <x:row r="45" spans="1:9" outlineLevel="1">
       <x:c r="A45" s="21" t="s"/>
       <x:c r="B45" s="21" t="s"/>
-      <x:c r="C45" s="9" t="s"/>
+      <x:c r="C45" s="9"/>
       <x:c r="D45" s="10" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="E45" s="10" t="s"/>
       <x:c r="F45" s="11" t="s"/>
-      <x:c r="G45" s="10" t="s"/>
-      <x:c r="H45" s="12" t="s"/>
+      <x:c r="G45" s="10" t="n"/>
+      <x:c r="H45" s="12" t="n"/>
       <x:c r="I45" s="13">
         <x:f>Subtotal(9,I43:I44)</x:f>
       </x:c>
@@ -1662,27 +1662,27 @@
     <x:row r="46" spans="1:9" outlineLevel="1">
       <x:c r="A46" s="21" t="s"/>
       <x:c r="B46" s="21" t="s"/>
-      <x:c r="C46" s="9" t="s"/>
+      <x:c r="C46" s="9"/>
       <x:c r="D46" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="E46" s="10" t="s"/>
       <x:c r="F46" s="11" t="s"/>
-      <x:c r="G46" s="10" t="s"/>
-      <x:c r="H46" s="12" t="s"/>
+      <x:c r="G46" s="10" t="n"/>
+      <x:c r="H46" s="12" t="n"/>
       <x:c r="I46" s="13" t="s"/>
     </x:row>
     <x:row r="47" spans="1:9" outlineLevel="2">
       <x:c r="A47" s="21" t="s"/>
       <x:c r="B47" s="21" t="s"/>
-      <x:c r="C47" s="9" t="s"/>
+      <x:c r="C47" s="9"/>
       <x:c r="D47" s="10" t="s"/>
       <x:c r="E47" s="10" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="F47" s="11" t="s"/>
-      <x:c r="G47" s="10" t="s"/>
-      <x:c r="H47" s="12" t="s"/>
+      <x:c r="G47" s="10" t="n"/>
+      <x:c r="H47" s="12" t="n"/>
       <x:c r="I47" s="13" t="s"/>
     </x:row>
     <x:row r="48" spans="1:9" outlineLevel="3">
@@ -1888,14 +1888,14 @@
     <x:row r="56" spans="1:9" outlineLevel="2">
       <x:c r="A56" s="21" t="s"/>
       <x:c r="B56" s="21" t="s"/>
-      <x:c r="C56" s="9" t="s"/>
+      <x:c r="C56" s="9"/>
       <x:c r="D56" s="10" t="s"/>
       <x:c r="E56" s="10" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="F56" s="11" t="s"/>
-      <x:c r="G56" s="10" t="s"/>
-      <x:c r="H56" s="12" t="s"/>
+      <x:c r="G56" s="10" t="n"/>
+      <x:c r="H56" s="12" t="n"/>
       <x:c r="I56" s="13">
         <x:f>Subtotal(9,I48:I55)</x:f>
       </x:c>
@@ -1903,14 +1903,14 @@
     <x:row r="57" spans="1:9" outlineLevel="2">
       <x:c r="A57" s="21" t="s"/>
       <x:c r="B57" s="21" t="s"/>
-      <x:c r="C57" s="9" t="s"/>
+      <x:c r="C57" s="9"/>
       <x:c r="D57" s="10" t="s"/>
       <x:c r="E57" s="10" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="F57" s="11" t="s"/>
-      <x:c r="G57" s="10" t="s"/>
-      <x:c r="H57" s="12" t="s"/>
+      <x:c r="G57" s="10" t="n"/>
+      <x:c r="H57" s="12" t="n"/>
       <x:c r="I57" s="13" t="s"/>
     </x:row>
     <x:row r="58" spans="1:9" outlineLevel="3">
@@ -2006,14 +2006,14 @@
     <x:row r="62" spans="1:9" outlineLevel="1">
       <x:c r="A62" s="21" t="s"/>
       <x:c r="B62" s="21" t="s"/>
-      <x:c r="C62" s="9" t="s"/>
+      <x:c r="C62" s="9"/>
       <x:c r="D62" s="10" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="E62" s="10" t="s"/>
       <x:c r="F62" s="11" t="s"/>
-      <x:c r="G62" s="10" t="s"/>
-      <x:c r="H62" s="12" t="s"/>
+      <x:c r="G62" s="10" t="n"/>
+      <x:c r="H62" s="12" t="n"/>
       <x:c r="I62" s="13">
         <x:f>Subtotal(9,I48:I61)</x:f>
       </x:c>
@@ -2021,14 +2021,14 @@
     <x:row r="63" spans="1:9" outlineLevel="1">
       <x:c r="A63" s="21" t="s"/>
       <x:c r="B63" s="21" t="s"/>
-      <x:c r="C63" s="9" t="s"/>
+      <x:c r="C63" s="9"/>
       <x:c r="D63" s="10" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="E63" s="10" t="s"/>
       <x:c r="F63" s="11" t="s"/>
-      <x:c r="G63" s="10" t="s"/>
-      <x:c r="H63" s="12" t="s"/>
+      <x:c r="G63" s="10" t="n"/>
+      <x:c r="H63" s="12" t="n"/>
       <x:c r="I63" s="13" t="s"/>
     </x:row>
     <x:row r="64" spans="1:9" outlineLevel="2">

--- a/tests/Gauges/Subtotal_WithHeaders.xlsx
+++ b/tests/Gauges/Subtotal_WithHeaders.xlsx
@@ -52,7 +52,7 @@
     <x:t>Binder</x:t>
   </x:si>
   <x:si>
-    <x:t>Andrews Итог</x:t>
+    <x:t>Andrews Total</x:t>
   </x:si>
   <x:si>
     <x:t>Gill</x:t>
@@ -61,7 +61,7 @@
     <x:t>Pen</x:t>
   </x:si>
   <x:si>
-    <x:t>Gill Итог</x:t>
+    <x:t>Gill Total</x:t>
   </x:si>
   <x:si>
     <x:t>Jardine</x:t>
@@ -70,7 +70,7 @@
     <x:t>Pen Set</x:t>
   </x:si>
   <x:si>
-    <x:t>Jardine Итог</x:t>
+    <x:t>Jardine Total</x:t>
   </x:si>
   <x:si>
     <x:t>Kivell</x:t>
@@ -79,22 +79,22 @@
     <x:t>Desk</x:t>
   </x:si>
   <x:si>
-    <x:t>Kivell Итог</x:t>
+    <x:t>Kivell Total</x:t>
   </x:si>
   <x:si>
     <x:t>Morgan</x:t>
   </x:si>
   <x:si>
-    <x:t>Morgan Итог</x:t>
+    <x:t>Morgan Total</x:t>
   </x:si>
   <x:si>
     <x:t>Smith</x:t>
   </x:si>
   <x:si>
-    <x:t>Smith Итог</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Central Итог</x:t>
+    <x:t>Smith Total</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Central Total</x:t>
   </x:si>
   <x:si>
     <x:t>Nord</x:t>
@@ -103,10 +103,10 @@
     <x:t>Howard</x:t>
   </x:si>
   <x:si>
-    <x:t>Howard Итог</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nord Итог</x:t>
+    <x:t>Howard Total</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nord Total</x:t>
   </x:si>
   <x:si>
     <x:t>East</x:t>
@@ -115,16 +115,16 @@
     <x:t>Jones</x:t>
   </x:si>
   <x:si>
-    <x:t>Jones Итог</x:t>
+    <x:t>Jones Total</x:t>
   </x:si>
   <x:si>
     <x:t>Parent</x:t>
   </x:si>
   <x:si>
-    <x:t>Parent Итог</x:t>
-  </x:si>
-  <x:si>
-    <x:t>East Итог</x:t>
+    <x:t>Parent Total</x:t>
+  </x:si>
+  <x:si>
+    <x:t>East Total</x:t>
   </x:si>
   <x:si>
     <x:t>West</x:t>
@@ -133,19 +133,19 @@
     <x:t>Sorvino</x:t>
   </x:si>
   <x:si>
-    <x:t>Sorvino Итог</x:t>
+    <x:t>Sorvino Total</x:t>
   </x:si>
   <x:si>
     <x:t>Thompson</x:t>
   </x:si>
   <x:si>
-    <x:t>Thompson Итог</x:t>
-  </x:si>
-  <x:si>
-    <x:t>West Итог</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Общий Итог</x:t>
+    <x:t>Thompson Total</x:t>
+  </x:si>
+  <x:si>
+    <x:t>West Total</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Общий Total</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -283,7 +283,7 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="20">
+  <x:cellStyleXfs count="18">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -301,9 +301,6 @@
     <x:xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="165" fontId="4" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -329,9 +326,6 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="4" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -731,7 +725,7 @@
   <x:dimension ref="A1:I47"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <x:selection activeCell="H22" sqref="H22 H22:H22"/>
+      <x:selection activeCell="H22" sqref="H22"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="10.5" outlineLevelCol="3"/>
@@ -785,27 +779,27 @@
     <x:row r="3" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <x:c r="A3" s="21" t="s"/>
       <x:c r="B3" s="21" t="s"/>
-      <x:c r="C3" s="9"/>
+      <x:c r="C3" s="9" t="s"/>
       <x:c r="D3" s="10" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="E3" s="10" t="s"/>
       <x:c r="F3" s="11" t="s"/>
-      <x:c r="G3" s="10" t="n"/>
-      <x:c r="H3" s="12" t="n"/>
+      <x:c r="G3" s="10" t="s"/>
+      <x:c r="H3" s="12" t="s"/>
       <x:c r="I3" s="13" t="s"/>
     </x:row>
     <x:row r="4" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A4" s="21" t="s"/>
       <x:c r="B4" s="21" t="s"/>
-      <x:c r="C4" s="9"/>
+      <x:c r="C4" s="9" t="s"/>
       <x:c r="D4" s="10" t="s"/>
       <x:c r="E4" s="10" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F4" s="11" t="s"/>
-      <x:c r="G4" s="10" t="n"/>
-      <x:c r="H4" s="12" t="n"/>
+      <x:c r="G4" s="10" t="s"/>
+      <x:c r="H4" s="12" t="s"/>
       <x:c r="I4" s="13" t="s"/>
     </x:row>
     <x:row r="5" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
@@ -911,14 +905,14 @@
     <x:row r="9" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A9" s="21" t="s"/>
       <x:c r="B9" s="21" t="s"/>
-      <x:c r="C9" s="9"/>
+      <x:c r="C9" s="9" t="s"/>
       <x:c r="D9" s="10" t="s"/>
       <x:c r="E9" s="10" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F9" s="11" t="s"/>
-      <x:c r="G9" s="10" t="n"/>
-      <x:c r="H9" s="12" t="n"/>
+      <x:c r="G9" s="10" t="s"/>
+      <x:c r="H9" s="12" t="s"/>
       <x:c r="I9" s="13">
         <x:f>Subtotal(9,I5:I8)</x:f>
       </x:c>
@@ -926,14 +920,14 @@
     <x:row r="10" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A10" s="21" t="s"/>
       <x:c r="B10" s="21" t="s"/>
-      <x:c r="C10" s="9"/>
+      <x:c r="C10" s="9" t="s"/>
       <x:c r="D10" s="10" t="s"/>
       <x:c r="E10" s="10" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F10" s="11" t="s"/>
-      <x:c r="G10" s="10" t="n"/>
-      <x:c r="H10" s="12" t="n"/>
+      <x:c r="G10" s="10" t="s"/>
+      <x:c r="H10" s="12" t="s"/>
       <x:c r="I10" s="13" t="s"/>
     </x:row>
     <x:row r="11" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
@@ -1064,14 +1058,14 @@
     <x:row r="16" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A16" s="21" t="s"/>
       <x:c r="B16" s="21" t="s"/>
-      <x:c r="C16" s="9"/>
+      <x:c r="C16" s="9" t="s"/>
       <x:c r="D16" s="10" t="s"/>
       <x:c r="E16" s="10" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F16" s="11" t="s"/>
-      <x:c r="G16" s="10" t="n"/>
-      <x:c r="H16" s="12" t="n"/>
+      <x:c r="G16" s="10" t="s"/>
+      <x:c r="H16" s="12" t="s"/>
       <x:c r="I16" s="13">
         <x:f>Subtotal(9,I11:I15)</x:f>
       </x:c>
@@ -1079,14 +1073,14 @@
     <x:row r="17" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A17" s="21" t="s"/>
       <x:c r="B17" s="21" t="s"/>
-      <x:c r="C17" s="9"/>
+      <x:c r="C17" s="9" t="s"/>
       <x:c r="D17" s="10" t="s"/>
       <x:c r="E17" s="10" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="F17" s="11" t="s"/>
-      <x:c r="G17" s="10" t="n"/>
-      <x:c r="H17" s="12" t="n"/>
+      <x:c r="G17" s="10" t="s"/>
+      <x:c r="H17" s="12" t="s"/>
       <x:c r="I17" s="13" t="s"/>
     </x:row>
     <x:row r="18" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
@@ -1217,14 +1211,14 @@
     <x:row r="23" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A23" s="21" t="s"/>
       <x:c r="B23" s="21" t="s"/>
-      <x:c r="C23" s="9"/>
+      <x:c r="C23" s="9" t="s"/>
       <x:c r="D23" s="10" t="s"/>
       <x:c r="E23" s="10" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="F23" s="11" t="s"/>
-      <x:c r="G23" s="10" t="n"/>
-      <x:c r="H23" s="12" t="n"/>
+      <x:c r="G23" s="10" t="s"/>
+      <x:c r="H23" s="12" t="s"/>
       <x:c r="I23" s="13">
         <x:f>Subtotal(9,I18:I22)</x:f>
       </x:c>
@@ -1232,14 +1226,14 @@
     <x:row r="24" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A24" s="21" t="s"/>
       <x:c r="B24" s="21" t="s"/>
-      <x:c r="C24" s="9"/>
+      <x:c r="C24" s="9" t="s"/>
       <x:c r="D24" s="10" t="s"/>
       <x:c r="E24" s="10" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="F24" s="11" t="s"/>
-      <x:c r="G24" s="10" t="n"/>
-      <x:c r="H24" s="12" t="n"/>
+      <x:c r="G24" s="10" t="s"/>
+      <x:c r="H24" s="12" t="s"/>
       <x:c r="I24" s="13" t="s"/>
     </x:row>
     <x:row r="25" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
@@ -1345,14 +1339,14 @@
     <x:row r="29" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A29" s="21" t="s"/>
       <x:c r="B29" s="21" t="s"/>
-      <x:c r="C29" s="9"/>
+      <x:c r="C29" s="9" t="s"/>
       <x:c r="D29" s="10" t="s"/>
       <x:c r="E29" s="10" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="F29" s="11" t="s"/>
-      <x:c r="G29" s="10" t="n"/>
-      <x:c r="H29" s="12" t="n"/>
+      <x:c r="G29" s="10" t="s"/>
+      <x:c r="H29" s="12" t="s"/>
       <x:c r="I29" s="13">
         <x:f>Subtotal(9,I25:I28)</x:f>
       </x:c>
@@ -1360,14 +1354,14 @@
     <x:row r="30" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A30" s="21" t="s"/>
       <x:c r="B30" s="21" t="s"/>
-      <x:c r="C30" s="9"/>
+      <x:c r="C30" s="9" t="s"/>
       <x:c r="D30" s="10" t="s"/>
       <x:c r="E30" s="10" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="F30" s="11" t="s"/>
-      <x:c r="G30" s="10" t="n"/>
-      <x:c r="H30" s="12" t="n"/>
+      <x:c r="G30" s="10" t="s"/>
+      <x:c r="H30" s="12" t="s"/>
       <x:c r="I30" s="13" t="s"/>
     </x:row>
     <x:row r="31" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
@@ -1448,14 +1442,14 @@
     <x:row r="34" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A34" s="21" t="s"/>
       <x:c r="B34" s="21" t="s"/>
-      <x:c r="C34" s="9"/>
+      <x:c r="C34" s="9" t="s"/>
       <x:c r="D34" s="10" t="s"/>
       <x:c r="E34" s="10" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F34" s="11" t="s"/>
-      <x:c r="G34" s="10" t="n"/>
-      <x:c r="H34" s="12" t="n"/>
+      <x:c r="G34" s="10" t="s"/>
+      <x:c r="H34" s="12" t="s"/>
       <x:c r="I34" s="13">
         <x:f>Subtotal(9,I31:I33)</x:f>
       </x:c>
@@ -1463,14 +1457,14 @@
     <x:row r="35" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A35" s="21" t="s"/>
       <x:c r="B35" s="21" t="s"/>
-      <x:c r="C35" s="9"/>
+      <x:c r="C35" s="9" t="s"/>
       <x:c r="D35" s="10" t="s"/>
       <x:c r="E35" s="10" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="F35" s="11" t="s"/>
-      <x:c r="G35" s="10" t="n"/>
-      <x:c r="H35" s="12" t="n"/>
+      <x:c r="G35" s="10" t="s"/>
+      <x:c r="H35" s="12" t="s"/>
       <x:c r="I35" s="13" t="s"/>
     </x:row>
     <x:row r="36" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
@@ -1551,14 +1545,14 @@
     <x:row r="39" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A39" s="21" t="s"/>
       <x:c r="B39" s="21" t="s"/>
-      <x:c r="C39" s="9"/>
+      <x:c r="C39" s="9" t="s"/>
       <x:c r="D39" s="10" t="s"/>
       <x:c r="E39" s="10" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="F39" s="11" t="s"/>
-      <x:c r="G39" s="10" t="n"/>
-      <x:c r="H39" s="12" t="n"/>
+      <x:c r="G39" s="10" t="s"/>
+      <x:c r="H39" s="12" t="s"/>
       <x:c r="I39" s="13">
         <x:f>Subtotal(9,I36:I38)</x:f>
       </x:c>
@@ -1566,14 +1560,14 @@
     <x:row r="40" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <x:c r="A40" s="21" t="s"/>
       <x:c r="B40" s="21" t="s"/>
-      <x:c r="C40" s="9"/>
+      <x:c r="C40" s="9" t="s"/>
       <x:c r="D40" s="10" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="E40" s="10" t="s"/>
       <x:c r="F40" s="11" t="s"/>
-      <x:c r="G40" s="10" t="n"/>
-      <x:c r="H40" s="12" t="n"/>
+      <x:c r="G40" s="10" t="s"/>
+      <x:c r="H40" s="12" t="s"/>
       <x:c r="I40" s="13">
         <x:f>Subtotal(9,I5:I39)</x:f>
       </x:c>
@@ -1581,27 +1575,27 @@
     <x:row r="41" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <x:c r="A41" s="21" t="s"/>
       <x:c r="B41" s="21" t="s"/>
-      <x:c r="C41" s="9"/>
+      <x:c r="C41" s="9" t="s"/>
       <x:c r="D41" s="10" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="E41" s="10" t="s"/>
       <x:c r="F41" s="11" t="s"/>
-      <x:c r="G41" s="10" t="n"/>
-      <x:c r="H41" s="12" t="n"/>
+      <x:c r="G41" s="10" t="s"/>
+      <x:c r="H41" s="12" t="s"/>
       <x:c r="I41" s="13" t="s"/>
     </x:row>
     <x:row r="42" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A42" s="21" t="s"/>
       <x:c r="B42" s="21" t="s"/>
-      <x:c r="C42" s="9"/>
+      <x:c r="C42" s="9" t="s"/>
       <x:c r="D42" s="10" t="s"/>
       <x:c r="E42" s="10" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F42" s="11" t="s"/>
-      <x:c r="G42" s="10" t="n"/>
-      <x:c r="H42" s="12" t="n"/>
+      <x:c r="G42" s="10" t="s"/>
+      <x:c r="H42" s="12" t="s"/>
       <x:c r="I42" s="13" t="s"/>
     </x:row>
     <x:row r="43" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
@@ -1632,14 +1626,14 @@
     <x:row r="44" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A44" s="21" t="s"/>
       <x:c r="B44" s="21" t="s"/>
-      <x:c r="C44" s="9"/>
+      <x:c r="C44" s="9" t="s"/>
       <x:c r="D44" s="10" t="s"/>
       <x:c r="E44" s="10" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="F44" s="11" t="s"/>
-      <x:c r="G44" s="10" t="n"/>
-      <x:c r="H44" s="12" t="n"/>
+      <x:c r="G44" s="10" t="s"/>
+      <x:c r="H44" s="12" t="s"/>
       <x:c r="I44" s="13">
         <x:f>Subtotal(9,I43:I43)</x:f>
       </x:c>
@@ -1647,14 +1641,14 @@
     <x:row r="45" spans="1:9" outlineLevel="1">
       <x:c r="A45" s="21" t="s"/>
       <x:c r="B45" s="21" t="s"/>
-      <x:c r="C45" s="9"/>
+      <x:c r="C45" s="9" t="s"/>
       <x:c r="D45" s="10" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="E45" s="10" t="s"/>
       <x:c r="F45" s="11" t="s"/>
-      <x:c r="G45" s="10" t="n"/>
-      <x:c r="H45" s="12" t="n"/>
+      <x:c r="G45" s="10" t="s"/>
+      <x:c r="H45" s="12" t="s"/>
       <x:c r="I45" s="13">
         <x:f>Subtotal(9,I43:I44)</x:f>
       </x:c>
@@ -1662,27 +1656,27 @@
     <x:row r="46" spans="1:9" outlineLevel="1">
       <x:c r="A46" s="21" t="s"/>
       <x:c r="B46" s="21" t="s"/>
-      <x:c r="C46" s="9"/>
+      <x:c r="C46" s="9" t="s"/>
       <x:c r="D46" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="E46" s="10" t="s"/>
       <x:c r="F46" s="11" t="s"/>
-      <x:c r="G46" s="10" t="n"/>
-      <x:c r="H46" s="12" t="n"/>
+      <x:c r="G46" s="10" t="s"/>
+      <x:c r="H46" s="12" t="s"/>
       <x:c r="I46" s="13" t="s"/>
     </x:row>
     <x:row r="47" spans="1:9" outlineLevel="2">
       <x:c r="A47" s="21" t="s"/>
       <x:c r="B47" s="21" t="s"/>
-      <x:c r="C47" s="9"/>
+      <x:c r="C47" s="9" t="s"/>
       <x:c r="D47" s="10" t="s"/>
       <x:c r="E47" s="10" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="F47" s="11" t="s"/>
-      <x:c r="G47" s="10" t="n"/>
-      <x:c r="H47" s="12" t="n"/>
+      <x:c r="G47" s="10" t="s"/>
+      <x:c r="H47" s="12" t="s"/>
       <x:c r="I47" s="13" t="s"/>
     </x:row>
     <x:row r="48" spans="1:9" outlineLevel="3">
@@ -1888,14 +1882,14 @@
     <x:row r="56" spans="1:9" outlineLevel="2">
       <x:c r="A56" s="21" t="s"/>
       <x:c r="B56" s="21" t="s"/>
-      <x:c r="C56" s="9"/>
+      <x:c r="C56" s="9" t="s"/>
       <x:c r="D56" s="10" t="s"/>
       <x:c r="E56" s="10" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="F56" s="11" t="s"/>
-      <x:c r="G56" s="10" t="n"/>
-      <x:c r="H56" s="12" t="n"/>
+      <x:c r="G56" s="10" t="s"/>
+      <x:c r="H56" s="12" t="s"/>
       <x:c r="I56" s="13">
         <x:f>Subtotal(9,I48:I55)</x:f>
       </x:c>
@@ -1903,14 +1897,14 @@
     <x:row r="57" spans="1:9" outlineLevel="2">
       <x:c r="A57" s="21" t="s"/>
       <x:c r="B57" s="21" t="s"/>
-      <x:c r="C57" s="9"/>
+      <x:c r="C57" s="9" t="s"/>
       <x:c r="D57" s="10" t="s"/>
       <x:c r="E57" s="10" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="F57" s="11" t="s"/>
-      <x:c r="G57" s="10" t="n"/>
-      <x:c r="H57" s="12" t="n"/>
+      <x:c r="G57" s="10" t="s"/>
+      <x:c r="H57" s="12" t="s"/>
       <x:c r="I57" s="13" t="s"/>
     </x:row>
     <x:row r="58" spans="1:9" outlineLevel="3">
@@ -2006,14 +2000,14 @@
     <x:row r="62" spans="1:9" outlineLevel="1">
       <x:c r="A62" s="21" t="s"/>
       <x:c r="B62" s="21" t="s"/>
-      <x:c r="C62" s="9"/>
+      <x:c r="C62" s="9" t="s"/>
       <x:c r="D62" s="10" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="E62" s="10" t="s"/>
       <x:c r="F62" s="11" t="s"/>
-      <x:c r="G62" s="10" t="n"/>
-      <x:c r="H62" s="12" t="n"/>
+      <x:c r="G62" s="10" t="s"/>
+      <x:c r="H62" s="12" t="s"/>
       <x:c r="I62" s="13">
         <x:f>Subtotal(9,I48:I61)</x:f>
       </x:c>
@@ -2021,14 +2015,14 @@
     <x:row r="63" spans="1:9" outlineLevel="1">
       <x:c r="A63" s="21" t="s"/>
       <x:c r="B63" s="21" t="s"/>
-      <x:c r="C63" s="9"/>
+      <x:c r="C63" s="9" t="s"/>
       <x:c r="D63" s="10" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="E63" s="10" t="s"/>
       <x:c r="F63" s="11" t="s"/>
-      <x:c r="G63" s="10" t="n"/>
-      <x:c r="H63" s="12" t="n"/>
+      <x:c r="G63" s="10" t="s"/>
+      <x:c r="H63" s="12" t="s"/>
       <x:c r="I63" s="13" t="s"/>
     </x:row>
     <x:row r="64" spans="1:9" outlineLevel="2">

--- a/tests/Gauges/Subtotal_WithHeaders.xlsx
+++ b/tests/Gauges/Subtotal_WithHeaders.xlsx
@@ -145,7 +145,7 @@
     <x:t>West Total</x:t>
   </x:si>
   <x:si>
-    <x:t>Общий Total</x:t>
+    <x:t>Grand Total</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/tests/Gauges/Subtotal_WithHeaders.xlsx
+++ b/tests/Gauges/Subtotal_WithHeaders.xlsx
@@ -283,59 +283,56 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="18">
+  <x:cellStyleXfs count="17">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="4" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="165" fontId="4" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="4" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="4" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="4" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="4" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="4" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="4" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="28">
+  <x:cellXfs count="25">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment vertical="center"/>
@@ -393,14 +390,6 @@
       <x:alignment vertical="center"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="0" hidden="0"/>
@@ -419,10 +408,6 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -730,55 +715,55 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="10.5" outlineLevelCol="3"/>
   <x:cols>
-    <x:col min="1" max="2" width="9.140625" style="20" customWidth="1"/>
-    <x:col min="3" max="3" width="12" style="20" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="4" width="8.664062" style="20" bestFit="1" customWidth="1"/>
-    <x:col min="5" max="5" width="12" style="20" bestFit="1" customWidth="1"/>
-    <x:col min="6" max="6" width="9" style="20" bestFit="1" customWidth="1"/>
-    <x:col min="7" max="7" width="6.664062" style="20" bestFit="1" customWidth="1"/>
-    <x:col min="8" max="8" width="10.664062" style="20" bestFit="1" customWidth="1"/>
-    <x:col min="9" max="9" width="11" style="20" bestFit="1" customWidth="1"/>
+    <x:col min="1" max="2" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="12" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="8.664062" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="12" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="9" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="7" max="7" width="6.664062" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="8" max="8" width="10.664062" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="9" max="9" width="11" style="0" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:9" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A1" s="21" t="s"/>
-      <x:c r="B1" s="21" t="s"/>
-      <x:c r="C1" s="21" t="s"/>
-      <x:c r="D1" s="21" t="s"/>
-      <x:c r="E1" s="21" t="s"/>
-      <x:c r="F1" s="21" t="s"/>
-      <x:c r="G1" s="22" t="s"/>
-      <x:c r="H1" s="21" t="s"/>
-      <x:c r="I1" s="21" t="s"/>
+      <x:c r="A1" s="1" t="s"/>
+      <x:c r="B1" s="1" t="s"/>
+      <x:c r="C1" s="1" t="s"/>
+      <x:c r="D1" s="1" t="s"/>
+      <x:c r="E1" s="1" t="s"/>
+      <x:c r="F1" s="1" t="s"/>
+      <x:c r="G1" s="20" t="s"/>
+      <x:c r="H1" s="1" t="s"/>
+      <x:c r="I1" s="1" t="s"/>
     </x:row>
     <x:row r="2" spans="1:9" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A2" s="21" t="s"/>
-      <x:c r="B2" s="21" t="s"/>
-      <x:c r="C2" s="23" t="s">
+      <x:c r="A2" s="1" t="s"/>
+      <x:c r="B2" s="1" t="s"/>
+      <x:c r="C2" s="21" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D2" s="24" t="s">
+      <x:c r="D2" s="22" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E2" s="24" t="s">
+      <x:c r="E2" s="22" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="F2" s="25" t="s">
+      <x:c r="F2" s="23" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="G2" s="25" t="s">
+      <x:c r="G2" s="23" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="H2" s="25" t="s">
+      <x:c r="H2" s="23" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="I2" s="26" t="s">
+      <x:c r="I2" s="24" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <x:c r="A3" s="21" t="s"/>
-      <x:c r="B3" s="21" t="s"/>
+      <x:c r="A3" s="1" t="s"/>
+      <x:c r="B3" s="1" t="s"/>
       <x:c r="C3" s="9" t="s"/>
       <x:c r="D3" s="10" t="s">
         <x:v>7</x:v>
@@ -790,8 +775,8 @@
       <x:c r="I3" s="13" t="s"/>
     </x:row>
     <x:row r="4" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
-      <x:c r="A4" s="21" t="s"/>
-      <x:c r="B4" s="21" t="s"/>
+      <x:c r="A4" s="1" t="s"/>
+      <x:c r="B4" s="1" t="s"/>
       <x:c r="C4" s="9" t="s"/>
       <x:c r="D4" s="10" t="s"/>
       <x:c r="E4" s="10" t="s">
@@ -803,8 +788,8 @@
       <x:c r="I4" s="13" t="s"/>
     </x:row>
     <x:row r="5" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A5" s="21" t="s"/>
-      <x:c r="B5" s="21" t="s"/>
+      <x:c r="A5" s="1" t="s"/>
+      <x:c r="B5" s="1" t="s"/>
       <x:c r="C5" s="9">
         <x:v>42112</x:v>
       </x:c>
@@ -828,8 +813,8 @@
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A6" s="21" t="s"/>
-      <x:c r="B6" s="21" t="s"/>
+      <x:c r="A6" s="1" t="s"/>
+      <x:c r="B6" s="1" t="s"/>
       <x:c r="C6" s="9">
         <x:v>42470</x:v>
       </x:c>
@@ -853,8 +838,8 @@
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A7" s="21" t="s"/>
-      <x:c r="B7" s="21" t="s"/>
+      <x:c r="A7" s="1" t="s"/>
+      <x:c r="B7" s="1" t="s"/>
       <x:c r="C7" s="9">
         <x:v>42674</x:v>
       </x:c>
@@ -878,8 +863,8 @@
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A8" s="21" t="s"/>
-      <x:c r="B8" s="21" t="s"/>
+      <x:c r="A8" s="1" t="s"/>
+      <x:c r="B8" s="1" t="s"/>
       <x:c r="C8" s="9">
         <x:v>42725</x:v>
       </x:c>
@@ -903,8 +888,8 @@
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
-      <x:c r="A9" s="21" t="s"/>
-      <x:c r="B9" s="21" t="s"/>
+      <x:c r="A9" s="1" t="s"/>
+      <x:c r="B9" s="1" t="s"/>
       <x:c r="C9" s="9" t="s"/>
       <x:c r="D9" s="10" t="s"/>
       <x:c r="E9" s="10" t="s">
@@ -918,8 +903,8 @@
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
-      <x:c r="A10" s="21" t="s"/>
-      <x:c r="B10" s="21" t="s"/>
+      <x:c r="A10" s="1" t="s"/>
+      <x:c r="B10" s="1" t="s"/>
       <x:c r="C10" s="9" t="s"/>
       <x:c r="D10" s="10" t="s"/>
       <x:c r="E10" s="10" t="s">
@@ -931,8 +916,8 @@
       <x:c r="I10" s="13" t="s"/>
     </x:row>
     <x:row r="11" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A11" s="21" t="s"/>
-      <x:c r="B11" s="21" t="s"/>
+      <x:c r="A11" s="1" t="s"/>
+      <x:c r="B11" s="1" t="s"/>
       <x:c r="C11" s="9">
         <x:v>42061</x:v>
       </x:c>
@@ -956,8 +941,8 @@
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A12" s="21" t="s"/>
-      <x:c r="B12" s="21" t="s"/>
+      <x:c r="A12" s="1" t="s"/>
+      <x:c r="B12" s="1" t="s"/>
       <x:c r="C12" s="9">
         <x:v>42384</x:v>
       </x:c>
@@ -981,8 +966,8 @@
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A13" s="21" t="s"/>
-      <x:c r="B13" s="21" t="s"/>
+      <x:c r="A13" s="1" t="s"/>
+      <x:c r="B13" s="1" t="s"/>
       <x:c r="C13" s="9">
         <x:v>42504</x:v>
       </x:c>
@@ -1006,8 +991,8 @@
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A14" s="21" t="s"/>
-      <x:c r="B14" s="21" t="s"/>
+      <x:c r="A14" s="1" t="s"/>
+      <x:c r="B14" s="1" t="s"/>
       <x:c r="C14" s="9">
         <x:v>42521</x:v>
       </x:c>
@@ -1031,8 +1016,8 @@
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A15" s="21" t="s"/>
-      <x:c r="B15" s="21" t="s"/>
+      <x:c r="A15" s="1" t="s"/>
+      <x:c r="B15" s="1" t="s"/>
       <x:c r="C15" s="9">
         <x:v>42623</x:v>
       </x:c>
@@ -1056,8 +1041,8 @@
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
-      <x:c r="A16" s="21" t="s"/>
-      <x:c r="B16" s="21" t="s"/>
+      <x:c r="A16" s="1" t="s"/>
+      <x:c r="B16" s="1" t="s"/>
       <x:c r="C16" s="9" t="s"/>
       <x:c r="D16" s="10" t="s"/>
       <x:c r="E16" s="10" t="s">
@@ -1071,8 +1056,8 @@
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
-      <x:c r="A17" s="21" t="s"/>
-      <x:c r="B17" s="21" t="s"/>
+      <x:c r="A17" s="1" t="s"/>
+      <x:c r="B17" s="1" t="s"/>
       <x:c r="C17" s="9" t="s"/>
       <x:c r="D17" s="10" t="s"/>
       <x:c r="E17" s="10" t="s">
@@ -1084,8 +1069,8 @@
       <x:c r="I17" s="13" t="s"/>
     </x:row>
     <x:row r="18" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A18" s="21" t="s"/>
-      <x:c r="B18" s="21" t="s"/>
+      <x:c r="A18" s="1" t="s"/>
+      <x:c r="B18" s="1" t="s"/>
       <x:c r="C18" s="9">
         <x:v>42044</x:v>
       </x:c>
@@ -1109,8 +1094,8 @@
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A19" s="21" t="s"/>
-      <x:c r="B19" s="21" t="s"/>
+      <x:c r="A19" s="1" t="s"/>
+      <x:c r="B19" s="1" t="s"/>
       <x:c r="C19" s="9">
         <x:v>42129</x:v>
       </x:c>
@@ -1134,8 +1119,8 @@
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A20" s="21" t="s"/>
-      <x:c r="B20" s="21" t="s"/>
+      <x:c r="A20" s="1" t="s"/>
+      <x:c r="B20" s="1" t="s"/>
       <x:c r="C20" s="9">
         <x:v>42453</x:v>
       </x:c>
@@ -1159,8 +1144,8 @@
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A21" s="21" t="s"/>
-      <x:c r="B21" s="21" t="s"/>
+      <x:c r="A21" s="1" t="s"/>
+      <x:c r="B21" s="1" t="s"/>
       <x:c r="C21" s="9">
         <x:v>42691</x:v>
       </x:c>
@@ -1184,8 +1169,8 @@
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A22" s="21" t="s"/>
-      <x:c r="B22" s="21" t="s"/>
+      <x:c r="A22" s="1" t="s"/>
+      <x:c r="B22" s="1" t="s"/>
       <x:c r="C22" s="9">
         <x:v>42708</x:v>
       </x:c>
@@ -1209,8 +1194,8 @@
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
-      <x:c r="A23" s="21" t="s"/>
-      <x:c r="B23" s="21" t="s"/>
+      <x:c r="A23" s="1" t="s"/>
+      <x:c r="B23" s="1" t="s"/>
       <x:c r="C23" s="9" t="s"/>
       <x:c r="D23" s="10" t="s"/>
       <x:c r="E23" s="10" t="s">
@@ -1224,8 +1209,8 @@
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
-      <x:c r="A24" s="21" t="s"/>
-      <x:c r="B24" s="21" t="s"/>
+      <x:c r="A24" s="1" t="s"/>
+      <x:c r="B24" s="1" t="s"/>
       <x:c r="C24" s="9" t="s"/>
       <x:c r="D24" s="10" t="s"/>
       <x:c r="E24" s="10" t="s">
@@ -1237,8 +1222,8 @@
       <x:c r="I24" s="13" t="s"/>
     </x:row>
     <x:row r="25" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A25" s="21" t="s"/>
-      <x:c r="B25" s="21" t="s"/>
+      <x:c r="A25" s="1" t="s"/>
+      <x:c r="B25" s="1" t="s"/>
       <x:c r="C25" s="9">
         <x:v>42027</x:v>
       </x:c>
@@ -1262,8 +1247,8 @@
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A26" s="21" t="s"/>
-      <x:c r="B26" s="21" t="s"/>
+      <x:c r="A26" s="1" t="s"/>
+      <x:c r="B26" s="1" t="s"/>
       <x:c r="C26" s="9">
         <x:v>42333</x:v>
       </x:c>
@@ -1287,8 +1272,8 @@
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A27" s="21" t="s"/>
-      <x:c r="B27" s="21" t="s"/>
+      <x:c r="A27" s="1" t="s"/>
+      <x:c r="B27" s="1" t="s"/>
       <x:c r="C27" s="9">
         <x:v>42538</x:v>
       </x:c>
@@ -1312,8 +1297,8 @@
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A28" s="21" t="s"/>
-      <x:c r="B28" s="21" t="s"/>
+      <x:c r="A28" s="1" t="s"/>
+      <x:c r="B28" s="1" t="s"/>
       <x:c r="C28" s="9">
         <x:v>42589</x:v>
       </x:c>
@@ -1337,8 +1322,8 @@
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
-      <x:c r="A29" s="21" t="s"/>
-      <x:c r="B29" s="21" t="s"/>
+      <x:c r="A29" s="1" t="s"/>
+      <x:c r="B29" s="1" t="s"/>
       <x:c r="C29" s="9" t="s"/>
       <x:c r="D29" s="10" t="s"/>
       <x:c r="E29" s="10" t="s">
@@ -1352,8 +1337,8 @@
       </x:c>
     </x:row>
     <x:row r="30" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
-      <x:c r="A30" s="21" t="s"/>
-      <x:c r="B30" s="21" t="s"/>
+      <x:c r="A30" s="1" t="s"/>
+      <x:c r="B30" s="1" t="s"/>
       <x:c r="C30" s="9" t="s"/>
       <x:c r="D30" s="10" t="s"/>
       <x:c r="E30" s="10" t="s">
@@ -1365,8 +1350,8 @@
       <x:c r="I30" s="13" t="s"/>
     </x:row>
     <x:row r="31" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A31" s="21" t="s"/>
-      <x:c r="B31" s="21" t="s"/>
+      <x:c r="A31" s="1" t="s"/>
+      <x:c r="B31" s="1" t="s"/>
       <x:c r="C31" s="9">
         <x:v>42180</x:v>
       </x:c>
@@ -1390,8 +1375,8 @@
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A32" s="21" t="s"/>
-      <x:c r="B32" s="21" t="s"/>
+      <x:c r="A32" s="1" t="s"/>
+      <x:c r="B32" s="1" t="s"/>
       <x:c r="C32" s="9">
         <x:v>42282</x:v>
       </x:c>
@@ -1415,8 +1400,8 @@
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A33" s="21" t="s"/>
-      <x:c r="B33" s="21" t="s"/>
+      <x:c r="A33" s="1" t="s"/>
+      <x:c r="B33" s="1" t="s"/>
       <x:c r="C33" s="9">
         <x:v>42572</x:v>
       </x:c>
@@ -1440,8 +1425,8 @@
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
-      <x:c r="A34" s="21" t="s"/>
-      <x:c r="B34" s="21" t="s"/>
+      <x:c r="A34" s="1" t="s"/>
+      <x:c r="B34" s="1" t="s"/>
       <x:c r="C34" s="9" t="s"/>
       <x:c r="D34" s="10" t="s"/>
       <x:c r="E34" s="10" t="s">
@@ -1455,8 +1440,8 @@
       </x:c>
     </x:row>
     <x:row r="35" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
-      <x:c r="A35" s="21" t="s"/>
-      <x:c r="B35" s="21" t="s"/>
+      <x:c r="A35" s="1" t="s"/>
+      <x:c r="B35" s="1" t="s"/>
       <x:c r="C35" s="9" t="s"/>
       <x:c r="D35" s="10" t="s"/>
       <x:c r="E35" s="10" t="s">
@@ -1468,8 +1453,8 @@
       <x:c r="I35" s="13" t="s"/>
     </x:row>
     <x:row r="36" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A36" s="21" t="s"/>
-      <x:c r="B36" s="21" t="s"/>
+      <x:c r="A36" s="1" t="s"/>
+      <x:c r="B36" s="1" t="s"/>
       <x:c r="C36" s="9">
         <x:v>42248</x:v>
       </x:c>
@@ -1493,8 +1478,8 @@
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A37" s="21" t="s"/>
-      <x:c r="B37" s="21" t="s"/>
+      <x:c r="A37" s="1" t="s"/>
+      <x:c r="B37" s="1" t="s"/>
       <x:c r="C37" s="9">
         <x:v>42350</x:v>
       </x:c>
@@ -1518,8 +1503,8 @@
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A38" s="21" t="s"/>
-      <x:c r="B38" s="21" t="s"/>
+      <x:c r="A38" s="1" t="s"/>
+      <x:c r="B38" s="1" t="s"/>
       <x:c r="C38" s="9">
         <x:v>42401</x:v>
       </x:c>
@@ -1543,8 +1528,8 @@
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
-      <x:c r="A39" s="21" t="s"/>
-      <x:c r="B39" s="21" t="s"/>
+      <x:c r="A39" s="1" t="s"/>
+      <x:c r="B39" s="1" t="s"/>
       <x:c r="C39" s="9" t="s"/>
       <x:c r="D39" s="10" t="s"/>
       <x:c r="E39" s="10" t="s">
@@ -1558,8 +1543,8 @@
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <x:c r="A40" s="21" t="s"/>
-      <x:c r="B40" s="21" t="s"/>
+      <x:c r="A40" s="1" t="s"/>
+      <x:c r="B40" s="1" t="s"/>
       <x:c r="C40" s="9" t="s"/>
       <x:c r="D40" s="10" t="s">
         <x:v>25</x:v>
@@ -1573,8 +1558,8 @@
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <x:c r="A41" s="21" t="s"/>
-      <x:c r="B41" s="21" t="s"/>
+      <x:c r="A41" s="1" t="s"/>
+      <x:c r="B41" s="1" t="s"/>
       <x:c r="C41" s="9" t="s"/>
       <x:c r="D41" s="10" t="s">
         <x:v>26</x:v>
@@ -1586,8 +1571,8 @@
       <x:c r="I41" s="13" t="s"/>
     </x:row>
     <x:row r="42" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
-      <x:c r="A42" s="21" t="s"/>
-      <x:c r="B42" s="21" t="s"/>
+      <x:c r="A42" s="1" t="s"/>
+      <x:c r="B42" s="1" t="s"/>
       <x:c r="C42" s="9" t="s"/>
       <x:c r="D42" s="10" t="s"/>
       <x:c r="E42" s="10" t="s">
@@ -1599,8 +1584,8 @@
       <x:c r="I42" s="13" t="s"/>
     </x:row>
     <x:row r="43" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A43" s="21" t="s"/>
-      <x:c r="B43" s="21" t="s"/>
+      <x:c r="A43" s="1" t="s"/>
+      <x:c r="B43" s="1" t="s"/>
       <x:c r="C43" s="9">
         <x:v>42197</x:v>
       </x:c>
@@ -1624,8 +1609,8 @@
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
-      <x:c r="A44" s="21" t="s"/>
-      <x:c r="B44" s="21" t="s"/>
+      <x:c r="A44" s="1" t="s"/>
+      <x:c r="B44" s="1" t="s"/>
       <x:c r="C44" s="9" t="s"/>
       <x:c r="D44" s="10" t="s"/>
       <x:c r="E44" s="10" t="s">
@@ -1639,8 +1624,6 @@
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9" outlineLevel="1">
-      <x:c r="A45" s="21" t="s"/>
-      <x:c r="B45" s="21" t="s"/>
       <x:c r="C45" s="9" t="s"/>
       <x:c r="D45" s="10" t="s">
         <x:v>29</x:v>
@@ -1654,8 +1637,6 @@
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9" outlineLevel="1">
-      <x:c r="A46" s="21" t="s"/>
-      <x:c r="B46" s="21" t="s"/>
       <x:c r="C46" s="9" t="s"/>
       <x:c r="D46" s="10" t="s">
         <x:v>30</x:v>
@@ -1667,8 +1648,6 @@
       <x:c r="I46" s="13" t="s"/>
     </x:row>
     <x:row r="47" spans="1:9" outlineLevel="2">
-      <x:c r="A47" s="21" t="s"/>
-      <x:c r="B47" s="21" t="s"/>
       <x:c r="C47" s="9" t="s"/>
       <x:c r="D47" s="10" t="s"/>
       <x:c r="E47" s="10" t="s">
@@ -1680,8 +1659,6 @@
       <x:c r="I47" s="13" t="s"/>
     </x:row>
     <x:row r="48" spans="1:9" outlineLevel="3">
-      <x:c r="A48" s="21" t="s"/>
-      <x:c r="B48" s="21" t="s"/>
       <x:c r="C48" s="9">
         <x:v>42010</x:v>
       </x:c>
@@ -1705,8 +1682,6 @@
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9" outlineLevel="3">
-      <x:c r="A49" s="21" t="s"/>
-      <x:c r="B49" s="21" t="s"/>
       <x:c r="C49" s="9">
         <x:v>42095</x:v>
       </x:c>
@@ -1730,8 +1705,6 @@
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9" outlineLevel="3">
-      <x:c r="A50" s="21" t="s"/>
-      <x:c r="B50" s="21" t="s"/>
       <x:c r="C50" s="9">
         <x:v>42163</x:v>
       </x:c>
@@ -1755,8 +1728,6 @@
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9" outlineLevel="3">
-      <x:c r="A51" s="21" t="s"/>
-      <x:c r="B51" s="21" t="s"/>
       <x:c r="C51" s="9">
         <x:v>42231</x:v>
       </x:c>
@@ -1780,8 +1751,6 @@
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9" outlineLevel="3">
-      <x:c r="A52" s="21" t="s"/>
-      <x:c r="B52" s="21" t="s"/>
       <x:c r="C52" s="9">
         <x:v>42265</x:v>
       </x:c>
@@ -1805,8 +1774,6 @@
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9" outlineLevel="3">
-      <x:c r="A53" s="21" t="s"/>
-      <x:c r="B53" s="21" t="s"/>
       <x:c r="C53" s="9">
         <x:v>42299</x:v>
       </x:c>
@@ -1830,8 +1797,6 @@
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9" outlineLevel="3">
-      <x:c r="A54" s="21" t="s"/>
-      <x:c r="B54" s="21" t="s"/>
       <x:c r="C54" s="9">
         <x:v>42418</x:v>
       </x:c>
@@ -1855,8 +1820,6 @@
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9" outlineLevel="3">
-      <x:c r="A55" s="21" t="s"/>
-      <x:c r="B55" s="21" t="s"/>
       <x:c r="C55" s="9">
         <x:v>42555</x:v>
       </x:c>
@@ -1880,8 +1843,6 @@
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9" outlineLevel="2">
-      <x:c r="A56" s="21" t="s"/>
-      <x:c r="B56" s="21" t="s"/>
       <x:c r="C56" s="9" t="s"/>
       <x:c r="D56" s="10" t="s"/>
       <x:c r="E56" s="10" t="s">
@@ -1895,8 +1856,6 @@
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9" outlineLevel="2">
-      <x:c r="A57" s="21" t="s"/>
-      <x:c r="B57" s="21" t="s"/>
       <x:c r="C57" s="9" t="s"/>
       <x:c r="D57" s="10" t="s"/>
       <x:c r="E57" s="10" t="s">
@@ -1908,8 +1867,6 @@
       <x:c r="I57" s="13" t="s"/>
     </x:row>
     <x:row r="58" spans="1:9" outlineLevel="3">
-      <x:c r="A58" s="21" t="s"/>
-      <x:c r="B58" s="21" t="s"/>
       <x:c r="C58" s="9">
         <x:v>42214</x:v>
       </x:c>
@@ -1933,8 +1890,6 @@
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9" outlineLevel="3">
-      <x:c r="A59" s="21" t="s"/>
-      <x:c r="B59" s="21" t="s"/>
       <x:c r="C59" s="9">
         <x:v>42316</x:v>
       </x:c>
@@ -1958,8 +1913,6 @@
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9" outlineLevel="3">
-      <x:c r="A60" s="21" t="s"/>
-      <x:c r="B60" s="21" t="s"/>
       <x:c r="C60" s="9">
         <x:v>42367</x:v>
       </x:c>
@@ -1983,8 +1936,6 @@
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9" outlineLevel="2">
-      <x:c r="A61" s="21" t="s"/>
-      <x:c r="B61" s="21" t="s"/>
       <x:c r="C61" s="9" t="s"/>
       <x:c r="D61" s="10" t="s"/>
       <x:c r="E61" s="10" t="s">
@@ -1998,8 +1949,6 @@
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9" outlineLevel="1">
-      <x:c r="A62" s="21" t="s"/>
-      <x:c r="B62" s="21" t="s"/>
       <x:c r="C62" s="9" t="s"/>
       <x:c r="D62" s="10" t="s">
         <x:v>35</x:v>
@@ -2013,8 +1962,6 @@
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9" outlineLevel="1">
-      <x:c r="A63" s="21" t="s"/>
-      <x:c r="B63" s="21" t="s"/>
       <x:c r="C63" s="9" t="s"/>
       <x:c r="D63" s="10" t="s">
         <x:v>36</x:v>
@@ -2026,8 +1973,6 @@
       <x:c r="I63" s="13" t="s"/>
     </x:row>
     <x:row r="64" spans="1:9" outlineLevel="2">
-      <x:c r="A64" s="21" t="s"/>
-      <x:c r="B64" s="21" t="s"/>
       <x:c r="C64" s="14" t="s"/>
       <x:c r="D64" s="15" t="s"/>
       <x:c r="E64" s="15" t="s">
@@ -2039,8 +1984,6 @@
       <x:c r="I64" s="18" t="s"/>
     </x:row>
     <x:row r="65" spans="1:9" outlineLevel="3">
-      <x:c r="A65" s="21" t="s"/>
-      <x:c r="B65" s="21" t="s"/>
       <x:c r="C65" s="9">
         <x:v>42078</x:v>
       </x:c>
@@ -2064,8 +2007,6 @@
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9" outlineLevel="3">
-      <x:c r="A66" s="21" t="s"/>
-      <x:c r="B66" s="21" t="s"/>
       <x:c r="C66" s="9">
         <x:v>42436</x:v>
       </x:c>
@@ -2089,8 +2030,6 @@
       </x:c>
     </x:row>
     <x:row r="67" spans="1:9" outlineLevel="3">
-      <x:c r="A67" s="21" t="s"/>
-      <x:c r="B67" s="21" t="s"/>
       <x:c r="C67" s="9">
         <x:v>42606</x:v>
       </x:c>
@@ -2114,8 +2053,6 @@
       </x:c>
     </x:row>
     <x:row r="68" spans="1:9" outlineLevel="3">
-      <x:c r="A68" s="21" t="s"/>
-      <x:c r="B68" s="21" t="s"/>
       <x:c r="C68" s="9">
         <x:v>42640</x:v>
       </x:c>
@@ -2139,8 +2076,6 @@
       </x:c>
     </x:row>
     <x:row r="69" spans="1:9" outlineLevel="2">
-      <x:c r="A69" s="21" t="s"/>
-      <x:c r="B69" s="21" t="s"/>
       <x:c r="C69" s="9" t="s"/>
       <x:c r="D69" s="10" t="s"/>
       <x:c r="E69" s="10" t="s">
@@ -2154,8 +2089,6 @@
       </x:c>
     </x:row>
     <x:row r="70" spans="1:9" outlineLevel="2">
-      <x:c r="A70" s="21" t="s"/>
-      <x:c r="B70" s="21" t="s"/>
       <x:c r="C70" s="14" t="s"/>
       <x:c r="D70" s="15" t="s"/>
       <x:c r="E70" s="15" t="s">
@@ -2167,8 +2100,6 @@
       <x:c r="I70" s="18" t="s"/>
     </x:row>
     <x:row r="71" spans="1:9" outlineLevel="3">
-      <x:c r="A71" s="21" t="s"/>
-      <x:c r="B71" s="21" t="s"/>
       <x:c r="C71" s="9">
         <x:v>42146</x:v>
       </x:c>
@@ -2192,8 +2123,6 @@
       </x:c>
     </x:row>
     <x:row r="72" spans="1:9" outlineLevel="3">
-      <x:c r="A72" s="21" t="s"/>
-      <x:c r="B72" s="21" t="s"/>
       <x:c r="C72" s="14">
         <x:v>42657</x:v>
       </x:c>
@@ -2217,8 +2146,6 @@
       </x:c>
     </x:row>
     <x:row r="73" spans="1:9" outlineLevel="2">
-      <x:c r="A73" s="21" t="s"/>
-      <x:c r="B73" s="21" t="s"/>
       <x:c r="C73" s="14" t="s"/>
       <x:c r="D73" s="15" t="s"/>
       <x:c r="E73" s="15" t="s">
@@ -2232,8 +2159,6 @@
       </x:c>
     </x:row>
     <x:row r="74" spans="1:9" outlineLevel="1">
-      <x:c r="A74" s="21" t="s"/>
-      <x:c r="B74" s="21" t="s"/>
       <x:c r="C74" s="14" t="s"/>
       <x:c r="D74" s="15" t="s">
         <x:v>41</x:v>
@@ -2247,8 +2172,6 @@
       </x:c>
     </x:row>
     <x:row r="75" spans="1:9">
-      <x:c r="A75" s="21" t="s"/>
-      <x:c r="B75" s="21" t="s"/>
       <x:c r="C75" s="14" t="s">
         <x:v>42</x:v>
       </x:c>
@@ -2262,13 +2185,13 @@
       </x:c>
     </x:row>
     <x:row r="78" spans="1:9">
-      <x:c r="G78" s="20" t="n">
+      <x:c r="G78" s="0" t="n">
         <x:v>2121</x:v>
       </x:c>
-      <x:c r="H78" s="27" t="n">
+      <x:c r="H78" s="19" t="n">
         <x:v>873.27</x:v>
       </x:c>
-      <x:c r="I78" s="27" t="n">
+      <x:c r="I78" s="19" t="n">
         <x:v>19627.88</x:v>
       </x:c>
     </x:row>
